--- a/CPU-SPECS/Stack.xlsx
+++ b/CPU-SPECS/Stack.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjorn\Desktop\CPUs\BES-8-CPU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjorn\Desktop\CPUs\BES-8-CPU\CPU-SPECS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3046243-667E-478F-BE64-440A092C6D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74065774-E226-4B64-8F56-747F2A44B16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{60BD8EC7-1CE0-4AB1-8C1D-843B2C9E47D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{60BD8EC7-1CE0-4AB1-8C1D-843B2C9E47D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="104">
   <si>
     <t>A</t>
   </si>
@@ -287,9 +287,6 @@
     <t>Writes the data from the writing addr and to the count at disk addr plus the count</t>
   </si>
   <si>
-    <t>Reads the disk from the starting addr and to the count and returns in the stack and returns in the stack</t>
-  </si>
-  <si>
     <t>Text Screen Output At cursor Def Color</t>
   </si>
   <si>
@@ -330,6 +327,30 @@
   </si>
   <si>
     <t>Exit Code</t>
+  </si>
+  <si>
+    <t>Reads the disk from the starting addr and to the count and returns in the Charse memory addr</t>
+  </si>
+  <si>
+    <t>Shift Charsh</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>word Start Renge</t>
+  </si>
+  <si>
+    <t>word End Renge</t>
+  </si>
+  <si>
+    <t>Move Charsh</t>
+  </si>
+  <si>
+    <t>Word Addr</t>
+  </si>
+  <si>
+    <t>byte Bank</t>
   </si>
 </sst>
 </file>
@@ -693,7 +714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13BEBC3B-EE35-4293-8A08-F90136BE72E0}">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1254,7 +1275,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>41010</v>
@@ -1285,7 +1306,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I25">
         <v>41011</v>
@@ -1315,7 +1336,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I26">
         <v>41012</v>
@@ -1354,7 +1375,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="J28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N28" s="1">
         <v>65387</v>
@@ -1400,13 +1421,13 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1421,10 +1442,10 @@
         <v>225281</v>
       </c>
       <c r="K30" t="s">
+        <v>90</v>
+      </c>
+      <c r="L30" t="s">
         <v>91</v>
-      </c>
-      <c r="L30" t="s">
-        <v>92</v>
       </c>
       <c r="N30" s="1">
         <v>65385</v>
@@ -1436,7 +1457,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -1460,7 +1481,7 @@
         <v>53</v>
       </c>
       <c r="L31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -1477,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1564,7 +1585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4B0602-ED20-46AA-BDD0-0BE83C63CF25}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -2007,7 +2028,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -2366,14 +2387,14 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" s="4">
         <v>20</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21" s="4"/>
       <c r="J21" s="4"/>
@@ -2799,57 +2820,22 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="J15:V15"/>
-    <mergeCell ref="J16:V16"/>
-    <mergeCell ref="J17:V17"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J20:V20"/>
-    <mergeCell ref="J21:V21"/>
-    <mergeCell ref="J22:V22"/>
-    <mergeCell ref="J23:V23"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J26:V26"/>
-    <mergeCell ref="J27:V27"/>
-    <mergeCell ref="J28:V28"/>
-    <mergeCell ref="J29:V29"/>
+    <mergeCell ref="J45:V45"/>
+    <mergeCell ref="J46:V46"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="J40:V40"/>
+    <mergeCell ref="J41:V41"/>
+    <mergeCell ref="J42:V42"/>
+    <mergeCell ref="J43:V43"/>
+    <mergeCell ref="J44:V44"/>
+    <mergeCell ref="J35:V35"/>
+    <mergeCell ref="J36:V36"/>
+    <mergeCell ref="J37:V37"/>
+    <mergeCell ref="J38:V38"/>
+    <mergeCell ref="J39:V39"/>
+    <mergeCell ref="J30:V30"/>
+    <mergeCell ref="J31:V31"/>
+    <mergeCell ref="J32:V32"/>
     <mergeCell ref="J33:V33"/>
     <mergeCell ref="J34:V34"/>
     <mergeCell ref="J1:V1"/>
@@ -2866,22 +2852,57 @@
     <mergeCell ref="J12:V12"/>
     <mergeCell ref="J13:V13"/>
     <mergeCell ref="J14:V14"/>
-    <mergeCell ref="J45:V45"/>
-    <mergeCell ref="J46:V46"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="J40:V40"/>
-    <mergeCell ref="J41:V41"/>
-    <mergeCell ref="J42:V42"/>
-    <mergeCell ref="J43:V43"/>
-    <mergeCell ref="J44:V44"/>
-    <mergeCell ref="J35:V35"/>
-    <mergeCell ref="J36:V36"/>
-    <mergeCell ref="J37:V37"/>
-    <mergeCell ref="J38:V38"/>
-    <mergeCell ref="J39:V39"/>
-    <mergeCell ref="J30:V30"/>
-    <mergeCell ref="J31:V31"/>
-    <mergeCell ref="J32:V32"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J26:V26"/>
+    <mergeCell ref="J27:V27"/>
+    <mergeCell ref="J28:V28"/>
+    <mergeCell ref="J29:V29"/>
+    <mergeCell ref="J20:V20"/>
+    <mergeCell ref="J21:V21"/>
+    <mergeCell ref="J22:V22"/>
+    <mergeCell ref="J23:V23"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J15:V15"/>
+    <mergeCell ref="J16:V16"/>
+    <mergeCell ref="J17:V17"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2889,16 +2910,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F820F2B8-A0D6-407B-8331-DFA89AFEF3E6}">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="D7" sqref="D7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="9.140625" style="1"/>
+    <col min="2" max="9" width="10.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2954,17 +2975,21 @@
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4"/>
+      <c r="G2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
         <v>75</v>
       </c>
@@ -2989,17 +3014,21 @@
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4"/>
+      <c r="G3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
         <v>77</v>
       </c>
@@ -3024,18 +3053,24 @@
       <c r="A4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -3058,20 +3093,24 @@
       <c r="A5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
         <v>81</v>
       </c>
@@ -3092,20 +3131,87 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="J1:Z1"/>
-    <mergeCell ref="F2:G2"/>
+  <mergeCells count="24">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="J2:Z2"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="J5:Z5"/>
     <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="J1:Z1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="J2:Z2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
